--- a/data_for_test/1data.xlsx
+++ b/data_for_test/1data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\gadalka\data_for_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,28 +24,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>ref1</t>
-  </si>
-  <si>
-    <t>line1</t>
-  </si>
-  <si>
-    <t>line2</t>
-  </si>
-  <si>
-    <t>line3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>ref_district</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>squere</t>
+  </si>
+  <si>
+    <t>plo</t>
+  </si>
+  <si>
+    <t>11 837,3</t>
+  </si>
+  <si>
+    <t>12 550,1</t>
+  </si>
+  <si>
+    <t>13 396,2</t>
+  </si>
+  <si>
+    <t>10 698,6</t>
+  </si>
+  <si>
+    <t>12 501,4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -72,9 +95,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -358,12 +385,14 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -384,8 +413,14 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>111</v>
+      <c r="B2" s="2">
+        <v>163591</v>
+      </c>
+      <c r="C2" s="2">
+        <v>13.82</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -393,404 +428,334 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2.5</v>
+        <v>209587</v>
+      </c>
+      <c r="C3" s="2">
+        <v>16.7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
+      <c r="B4" s="2">
+        <v>509592</v>
+      </c>
+      <c r="C4" s="2">
+        <v>115.52</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4411.3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>4</v>
+      <c r="B5" s="2">
+        <v>538258</v>
+      </c>
+      <c r="C5" s="2">
+        <v>40.18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>5</v>
+      <c r="B6" s="2">
+        <v>336404</v>
+      </c>
+      <c r="C6" s="2">
+        <v>47.46</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7088.2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" s="2">
+        <v>188688</v>
+      </c>
+      <c r="C7" s="2">
+        <v>102.25</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1845.4</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>7</v>
+      <c r="B8" s="2">
+        <v>357906</v>
+      </c>
+      <c r="C8" s="2">
+        <v>56.35</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6351.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>7</v>
+      <c r="B9" s="2">
+        <v>383111</v>
+      </c>
+      <c r="C9" s="2">
+        <v>90.49</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4233.7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>14</v>
+      <c r="B10" s="2">
+        <v>44401</v>
+      </c>
+      <c r="C10" s="2">
+        <v>19.53</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2273.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>10.6</v>
+      <c r="B11" s="2">
+        <v>76923</v>
+      </c>
+      <c r="C11" s="2">
+        <v>268.19</v>
+      </c>
+      <c r="D11" s="2">
+        <v>286.8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="C12">
-        <v>16</v>
+      <c r="B12" s="2">
+        <v>350602</v>
+      </c>
+      <c r="C12" s="2">
+        <v>73.069999999999993</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4798.2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1">
-        <v>12.3</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>519433</v>
+      </c>
+      <c r="C13" s="2">
+        <v>60.66</v>
+      </c>
+      <c r="D13" s="2">
+        <v>8563</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1">
-        <v>13.7</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>134787</v>
+      </c>
+      <c r="C14" s="2">
+        <v>19.54</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6898</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1">
         <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>140949</v>
+      </c>
+      <c r="C15" s="2">
+        <v>107.08</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1316.3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>565442</v>
+      </c>
+      <c r="C16" s="2">
+        <v>109.9</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5145.1000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1">
         <v>16</v>
       </c>
-      <c r="C17">
+      <c r="B17" s="2">
+        <v>208702</v>
+      </c>
+      <c r="C17" s="2">
+        <v>240.09</v>
+      </c>
+      <c r="D17" s="2">
+        <v>869.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>401410</v>
+      </c>
+      <c r="C18" s="2">
+        <v>37.520000000000003</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="B19" s="2">
+        <v>222149</v>
+      </c>
+      <c r="C19" s="2">
+        <v>17.77</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>9</v>
-      </c>
-      <c r="B20" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>10</v>
-      </c>
-      <c r="B21" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" s="1">
-        <v>-22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>5</v>
-      </c>
-      <c r="B26" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>6</v>
-      </c>
-      <c r="B27" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>7</v>
-      </c>
-      <c r="B28" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>8</v>
-      </c>
-      <c r="B29" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>9</v>
-      </c>
-      <c r="B30" s="1">
-        <v>29</v>
-      </c>
-      <c r="C30">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>10</v>
-      </c>
-      <c r="B31" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>2</v>
-      </c>
-      <c r="B33" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>3</v>
-      </c>
-      <c r="B34" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>5</v>
-      </c>
-      <c r="B36" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>6</v>
-      </c>
-      <c r="B37" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>7</v>
-      </c>
-      <c r="B38" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>8</v>
-      </c>
-      <c r="B39" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>9</v>
-      </c>
-      <c r="B40" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>10</v>
-      </c>
-      <c r="B41" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>2</v>
-      </c>
-      <c r="B43" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>3</v>
-      </c>
-      <c r="B44" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>4</v>
-      </c>
-      <c r="B45" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>5</v>
-      </c>
-      <c r="B46" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>6</v>
-      </c>
-      <c r="B47" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>7</v>
-      </c>
-      <c r="B48" s="1">
-        <v>47</v>
-      </c>
-      <c r="C48">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>8</v>
-      </c>
-      <c r="B49" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>9</v>
-      </c>
-      <c r="B50" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>10</v>
-      </c>
-      <c r="B51" s="1">
-        <v>50</v>
-      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_for_test/1data.xlsx
+++ b/data_for_test/1data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ref_district</t>
   </si>
@@ -36,21 +36,6 @@
   </si>
   <si>
     <t>plo</t>
-  </si>
-  <si>
-    <t>11 837,3</t>
-  </si>
-  <si>
-    <t>12 550,1</t>
-  </si>
-  <si>
-    <t>13 396,2</t>
-  </si>
-  <si>
-    <t>10 698,6</t>
-  </si>
-  <si>
-    <t>12 501,4</t>
   </si>
 </sst>
 </file>
@@ -384,9 +369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -419,8 +402,8 @@
       <c r="C2" s="2">
         <v>13.82</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
+      <c r="D2" s="3">
+        <v>11837.3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -433,8 +416,8 @@
       <c r="C3" s="2">
         <v>16.7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
+      <c r="D3" s="3">
+        <v>12550.1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -461,8 +444,8 @@
       <c r="C5" s="2">
         <v>40.18</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
+      <c r="D5" s="3">
+        <v>13396.2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -643,8 +626,8 @@
       <c r="C18" s="2">
         <v>37.520000000000003</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>7</v>
+      <c r="D18" s="3">
+        <v>10698.6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -657,8 +640,8 @@
       <c r="C19" s="2">
         <v>17.77</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>8</v>
+      <c r="D19" s="3">
+        <v>12501.4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">

--- a/data_for_test/1data.xlsx
+++ b/data_for_test/1data.xlsx
@@ -369,7 +369,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -526,7 +528,7 @@
         <v>76923</v>
       </c>
       <c r="C11" s="2">
-        <v>268.19</v>
+        <v>68.19</v>
       </c>
       <c r="D11" s="2">
         <v>286.8</v>

--- a/data_for_test/1data.xlsx
+++ b/data_for_test/1data.xlsx
@@ -369,8 +369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +647,18 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20" s="2">
+        <v>320602</v>
+      </c>
+      <c r="C20" s="2">
+        <v>72.069999999999993</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4598.2</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
